--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\Assimil\Assimil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4B58F5-425E-4868-8C6D-0C40CAE5A23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6EA32-A84F-4FB2-9A0A-36E403056FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Allô ? Oui ?</t>
   </si>
   <si>
-    <t>Bună ziua, domnule Popescu.</t>
-  </si>
-  <si>
     <t>Bonjour, Monsieur Popescu.</t>
   </si>
   <si>
@@ -122,27 +119,6 @@
   </si>
   <si>
     <t>Olá, Sr. Popescu.</t>
-  </si>
-  <si>
-    <t>Ce mai faceţi ?</t>
-  </si>
-  <si>
-    <t>Ion nu este acasă.</t>
-  </si>
-  <si>
-    <t>Ion n'est pas à la maison.</t>
-  </si>
-  <si>
-    <t>Cred că vine mai tîrziu.</t>
-  </si>
-  <si>
-    <t>Je crois qu'il rentre (vient) plus tard.</t>
-  </si>
-  <si>
-    <t>încerc la ora cinci.</t>
-  </si>
-  <si>
-    <t>J'essaie à cinq heures (l'heure cinq).</t>
   </si>
   <si>
     <t>Como vai ?</t>
@@ -511,21 +487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A3A86-0B8A-41D9-9765-834A3B6C7CA6}">
   <dimension ref="A4:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -533,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -541,21 +517,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
@@ -565,268 +541,268 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F19" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
         <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;Como vai ?&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;Ion não está em casa.&lt;/p&gt;</v>
+      </c>
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;Ion não está em casa.&lt;/p&gt;</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Acho que ele virá mais tarde.&lt;/p&gt;</v>
+      </c>
+      <c r="G10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Acho que ele virá mais tarde.&lt;/p&gt;</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Eu tento às cinco horas.&lt;/p&gt;</v>
+      </c>
+      <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Eu tento às cinco horas.&lt;/p&gt;</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="G19" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -837,73 +813,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4863C-CB67-4667-BC4A-4C331B20805D}">
-  <dimension ref="B19:D23"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\Assimil\Assimil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6EA32-A84F-4FB2-9A0A-36E403056FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -91,9 +91,6 @@
     <t>&lt;strong&gt;2</t>
   </si>
   <si>
-    <t>&lt;strong&gt;</t>
-  </si>
-  <si>
     <t>&lt;strong&gt;3</t>
   </si>
   <si>
@@ -118,19 +115,37 @@
     <t xml:space="preserve"> – &lt;/strong&gt;</t>
   </si>
   <si>
-    <t>Olá, Sr. Popescu.</t>
-  </si>
-  <si>
-    <t>Como vai ?</t>
-  </si>
-  <si>
-    <t>Ion não está em casa.</t>
-  </si>
-  <si>
-    <t>Acho que ele virá mais tarde.</t>
-  </si>
-  <si>
-    <t>Eu tento às cinco horas.</t>
+    <t>&lt;strong&gt;10</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;11</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;12</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;13</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;14</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;15</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;16</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;17</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;18</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;19</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;20</t>
   </si>
 </sst>
 </file>
@@ -485,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A3A86-0B8A-41D9-9765-834A3B6C7CA6}">
-  <dimension ref="A4:G19"/>
+  <dimension ref="A4:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,17 +540,14 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Olá, Sr. Popescu.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -549,17 +561,14 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8:F19" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;Como vai ?&lt;/p&gt;</v>
+        <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -573,17 +582,14 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;Ion não está em casa.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -597,17 +603,14 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Acho que ele virá mais tarde.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -621,17 +624,14 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Eu tento às cinco horas.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -642,17 +642,17 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -663,17 +663,17 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -684,17 +684,17 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -705,17 +705,17 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -726,17 +726,17 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -747,17 +747,17 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -768,17 +768,17 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -789,20 +789,138 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;17 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;18 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -815,15 +933,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4863C-CB67-4667-BC4A-4C331B20805D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\Assimil\Assimil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109C344A-6299-4D42-B6FD-43EC71766E45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -146,6 +157,21 @@
   </si>
   <si>
     <t>&lt;strong&gt;20</t>
+  </si>
+  <si>
+    <t>Um (pacote) maço de cigarros preto (marron), por favor.</t>
+  </si>
+  <si>
+    <t>O senhor tem fogo?</t>
+  </si>
+  <si>
+    <t>Desculpe, eu não fumo.</t>
+  </si>
+  <si>
+    <t>Dois fatias de pão com manteiga, por favor, e dois cafés pretos.</t>
+  </si>
+  <si>
+    <t>Tem um isqueiro vermelho?</t>
   </si>
 </sst>
 </file>
@@ -492,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,23 +526,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A3A86-0B8A-41D9-9765-834A3B6C7CA6}">
-  <dimension ref="A4:G26"/>
+  <dimension ref="A4:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -524,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -532,7 +558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -542,18 +568,21 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Um (pacote) maço de cigarros preto (marron), por favor.&lt;/p&gt;</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -563,18 +592,21 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;O senhor tem fogo?&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -584,18 +616,21 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Desculpe, eu não fumo.&lt;/p&gt;</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -605,18 +640,21 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Dois fatias de pão com manteiga, por favor, e dois cafés pretos.&lt;/p&gt;</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -626,23 +664,26 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;Tem um isqueiro vermelho?&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -652,18 +693,18 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -673,18 +714,18 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -694,19 +735,16 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
@@ -715,18 +753,18 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -736,18 +774,18 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
@@ -757,18 +795,18 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -778,18 +816,18 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -799,128 +837,138 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;17 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;18 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -937,9 +985,9 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109C344A-6299-4D42-B6FD-43EC71766E45}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94554E1-7F8A-434C-BD53-0F3CA2079D67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -159,19 +159,43 @@
     <t>&lt;strong&gt;20</t>
   </si>
   <si>
-    <t>Um (pacote) maço de cigarros preto (marron), por favor.</t>
-  </si>
-  <si>
-    <t>O senhor tem fogo?</t>
-  </si>
-  <si>
-    <t>Desculpe, eu não fumo.</t>
-  </si>
-  <si>
-    <t>Dois fatias de pão com manteiga, por favor, e dois cafés pretos.</t>
-  </si>
-  <si>
-    <t>Tem um isqueiro vermelho?</t>
+    <t>Seu nome e endereço? Catherine Farina, soletra-se F-A-R-I-N-A; 31, rue Damrémont, 75018 Paris.</t>
+  </si>
+  <si>
+    <t>Você tem um contato ou um número de telefone em Strasbourg?</t>
+  </si>
+  <si>
+    <t>Não. Bem, sim. Eu estou hospedada no Hotel de Colmar.</t>
+  </si>
+  <si>
+    <t>Muito bem. Você gostaria de um seguro adicional? - Não, obrigada.</t>
+  </si>
+  <si>
+    <t>Então coloque suas iniciais nos espaços A e B e assine abaixo, por favor.</t>
+  </si>
+  <si>
+    <t>Aqui está o seu contrato e as chaves do carro. É o Peugeot verde em frente.</t>
+  </si>
+  <si>
+    <t>Você precisa de um mapa da estrada? Não, obrigada, eu conheço bem a região.</t>
+  </si>
+  <si>
+    <t>Então, desejo-lhe uma boa viagem.</t>
+  </si>
+  <si>
+    <t>Está certo que Gisèle mora na província? -Não, idiota! Ela mora na Provence.</t>
+  </si>
+  <si>
+    <t>Eu preciso falar com o diretor urgentemente. -Sobre o que?</t>
+  </si>
+  <si>
+    <t>Você conhece a região? -Não. Bem, um pouco.</t>
+  </si>
+  <si>
+    <t>Eu preciso do seu cartão de motorista e um cartão de crédito, por favor.</t>
+  </si>
+  <si>
+    <t>Você sabe onde posso encontrar um mapa de estradas?</t>
   </si>
 </sst>
 </file>
@@ -518,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,14 +593,14 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Um (pacote) maço de cigarros preto (marron), por favor.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Está certo que Gisèle mora na província? -Não, idiota! Ela mora na Provence.&lt;/p&gt;</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -593,14 +617,14 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;O senhor tem fogo?&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;Eu preciso falar com o diretor urgentemente. -Sobre o que?&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -617,14 +641,14 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Desculpe, eu não fumo.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Você conhece a região? -Não. Bem, um pouco.&lt;/p&gt;</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -641,14 +665,14 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Dois fatias de pão com manteiga, por favor, e dois cafés pretos.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Eu preciso do seu cartão de motorista e um cartão de crédito, por favor.&lt;/p&gt;</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -665,14 +689,14 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;Tem um isqueiro vermelho?&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;Você sabe onde posso encontrar um mapa de estradas?&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -683,17 +707,20 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;Seu nome e endereço? Catherine Farina, soletra-se F-A-R-I-N-A; 31, rue Damrémont, 75018 Paris.&lt;/p&gt;</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -704,17 +731,20 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;Você tem um contato ou um número de telefone em Strasbourg?&lt;/p&gt;</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -725,17 +755,20 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;Não. Bem, sim. Eu estou hospedada no Hotel de Colmar.&lt;/p&gt;</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -745,15 +778,21 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt; – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;Muito bem. Você gostaria de um seguro adicional? - Não, obrigada.&lt;/p&gt;</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -764,17 +803,20 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;Então coloque suas iniciais nos espaços A e B e assine abaixo, por favor.&lt;/p&gt;</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -785,17 +827,20 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;Aqui está o seu contrato e as chaves do carro. É o Peugeot verde em frente.&lt;/p&gt;</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -806,17 +851,20 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;Você precisa de um mapa da estrada? Não, obrigada, eu conheço bem a região.&lt;/p&gt;</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -827,17 +875,20 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;Então, desejo-lhe uma boa viagem.&lt;/p&gt;</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -848,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -858,7 +909,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -876,7 +927,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>28</v>
@@ -894,7 +945,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -902,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -912,7 +963,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
@@ -930,7 +981,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;17 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
@@ -952,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
@@ -963,7 +1014,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94554E1-7F8A-434C-BD53-0F3CA2079D67}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34684E6-F0A9-4E0E-B3D4-835CD466F79C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -159,43 +159,19 @@
     <t>&lt;strong&gt;20</t>
   </si>
   <si>
-    <t>Seu nome e endereço? Catherine Farina, soletra-se F-A-R-I-N-A; 31, rue Damrémont, 75018 Paris.</t>
-  </si>
-  <si>
-    <t>Você tem um contato ou um número de telefone em Strasbourg?</t>
-  </si>
-  <si>
-    <t>Não. Bem, sim. Eu estou hospedada no Hotel de Colmar.</t>
-  </si>
-  <si>
-    <t>Muito bem. Você gostaria de um seguro adicional? - Não, obrigada.</t>
-  </si>
-  <si>
-    <t>Então coloque suas iniciais nos espaços A e B e assine abaixo, por favor.</t>
-  </si>
-  <si>
-    <t>Aqui está o seu contrato e as chaves do carro. É o Peugeot verde em frente.</t>
-  </si>
-  <si>
-    <t>Você precisa de um mapa da estrada? Não, obrigada, eu conheço bem a região.</t>
-  </si>
-  <si>
-    <t>Então, desejo-lhe uma boa viagem.</t>
-  </si>
-  <si>
-    <t>Está certo que Gisèle mora na província? -Não, idiota! Ela mora na Provence.</t>
-  </si>
-  <si>
-    <t>Eu preciso falar com o diretor urgentemente. -Sobre o que?</t>
-  </si>
-  <si>
-    <t>Você conhece a região? -Não. Bem, um pouco.</t>
-  </si>
-  <si>
-    <t>Eu preciso do seu cartão de motorista e um cartão de crédito, por favor.</t>
-  </si>
-  <si>
-    <t>Você sabe onde posso encontrar um mapa de estradas?</t>
+    <t>ijejo salɯmatɕʰɯmʌdɨn hwanɡap ijejo.</t>
+  </si>
+  <si>
+    <t>joɯn arem͈daun toɕiɾo jʌɡjʌdʑjojo.</t>
+  </si>
+  <si>
+    <t>ʌjoɯn siksaŋdɨɾeɡaseo anʨasʌtʌjojo.</t>
+  </si>
+  <si>
+    <t>haesseoyo apɛtɕʌʌlɯl haesseoyo.</t>
+  </si>
+  <si>
+    <t>ejoɯn insaŋɛso kajɕaŋ kʌŋsa.</t>
   </si>
 </sst>
 </file>
@@ -251,6 +227,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,14 +573,14 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Está certo que Gisèle mora na província? -Não, idiota! Ela mora na Provence.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;ijejo salɯmatɕʰɯmʌdɨn hwanɡap ijejo.&lt;/p&gt;</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -617,14 +597,14 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;Eu preciso falar com o diretor urgentemente. -Sobre o que?&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;joɯn arem͈daun toɕiɾo jʌɡjʌdʑjojo.&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -641,14 +621,14 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Você conhece a região? -Não. Bem, um pouco.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;ʌjoɯn siksaŋdɨɾeɡaseo anʨasʌtʌjojo.&lt;/p&gt;</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -665,14 +645,14 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;Eu preciso do seu cartão de motorista e um cartão de crédito, por favor.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;haesseoyo apɛtɕʌʌlɯl haesseoyo.&lt;/p&gt;</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -689,14 +669,14 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;Você sabe onde posso encontrar um mapa de estradas?&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;ejoɯn insaŋɛso kajɕaŋ kʌŋsa.&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -712,15 +692,12 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;Seu nome e endereço? Catherine Farina, soletra-se F-A-R-I-N-A; 31, rue Damrémont, 75018 Paris.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -736,15 +713,12 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;Você tem um contato ou um número de telefone em Strasbourg?&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -760,15 +734,12 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;Não. Bem, sim. Eu estou hospedada no Hotel de Colmar.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -784,15 +755,12 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;Muito bem. Você gostaria de um seguro adicional? - Não, obrigada.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -808,15 +776,12 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;Então coloque suas iniciais nos espaços A e B e assine abaixo, por favor.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -832,15 +797,12 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;Aqui está o seu contrato e as chaves do carro. É o Peugeot verde em frente.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -856,15 +818,12 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;Você precisa de um mapa da estrada? Não, obrigada, eu conheço bem a região.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -880,15 +839,12 @@
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;Então, desejo-lhe uma boa viagem.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34684E6-F0A9-4E0E-B3D4-835CD466F79C}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD07CA78-BF37-4AB2-B1EF-1B44BF95F446}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -159,32 +159,63 @@
     <t>&lt;strong&gt;20</t>
   </si>
   <si>
-    <t>ijejo salɯmatɕʰɯmʌdɨn hwanɡap ijejo.</t>
-  </si>
-  <si>
-    <t>joɯn arem͈daun toɕiɾo jʌɡjʌdʑjojo.</t>
-  </si>
-  <si>
-    <t>ʌjoɯn siksaŋdɨɾeɡaseo anʨasʌtʌjojo.</t>
-  </si>
-  <si>
-    <t>haesseoyo apɛtɕʌʌlɯl haesseoyo.</t>
-  </si>
-  <si>
-    <t>ejoɯn insaŋɛso kajɕaŋ kʌŋsa.</t>
+    <t> Você foi ao hospital hoje de manhã?</t>
+  </si>
+  <si>
+    <t> Sim, como de costume, e antes acompanhei as crianças à escola.</t>
+  </si>
+  <si>
+    <t> Além disso, Lisa fez um monte de manhas para ir à creche,</t>
+  </si>
+  <si>
+    <t> e entrou apenas quando Frederico chegou…. o seu amigo do peito!</t>
+  </si>
+  <si>
+    <t> No final do meu turno no hospital, fiz um pouco de compras:</t>
+  </si>
+  <si>
+    <t> passei no açougue e na mercearia, e depois também, na lavanderia para retirar um vestido…</t>
+  </si>
+  <si>
+    <t> Ontem a tarde, ao invés, passei uma noitada agradável…!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Como vai? – Mais ou menos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alô? É você? – Sim, sou eu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O que você fez nestes últimos dias? Bah, as coisas de sempre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fiz um pouco de compras: fui no açougue e na mercearia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ontem à noite, ao invés, passei uma noite agradável.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espera um instante: desligo o rádio e acendo um cigarro.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF5E5E5E"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,11 +238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +565,7 @@
   <dimension ref="A4:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F11"/>
+      <selection activeCell="F7" sqref="F7:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,14 +605,14 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;ijejo salɯmatɕʰɯmʌdɨn hwanɡap ijejo.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt; Como vai? – Mais ou menos.&lt;/p&gt;</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -597,14 +629,14 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;joɯn arem͈daun toɕiɾo jʌɡjʌdʑjojo.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt; Alô? É você? – Sim, sou eu.&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -621,14 +653,14 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;ʌjoɯn siksaŋdɨɾeɡaseo anʨasʌtʌjojo.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt; O que você fez nestes últimos dias? Bah, as coisas de sempre.&lt;/p&gt;</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -645,14 +677,14 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;haesseoyo apɛtɕʌʌlɯl haesseoyo.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt; Fiz um pouco de compras: fui no açougue e na mercearia.&lt;/p&gt;</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -669,14 +701,14 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;ejoɯn insaŋɛso kajɕaŋ kʌŋsa.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt; Ontem à noite, ao invés, passei uma noite agradável.&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -692,12 +724,15 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt; Espera um instante: desligo o rádio e acendo um cigarro.&lt;/p&gt;</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -986,17 +1021,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4863C-CB67-4667-BC4A-4C331B20805D}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="83.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD07CA78-BF37-4AB2-B1EF-1B44BF95F446}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC5500C-F6B2-4894-BCE5-47AD45956AE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -196,13 +196,271 @@
   </si>
   <si>
     <t xml:space="preserve"> Espera um instante: desligo o rádio e acendo um cigarro.</t>
+  </si>
+  <si>
+    <t>บทที่หนึ่ง</t>
+  </si>
+  <si>
+    <t>Première leçon.</t>
+  </si>
+  <si>
+    <t>Bot thii nung</t>
+  </si>
+  <si>
+    <t>p13 (1)</t>
+  </si>
+  <si>
+    <t>สวัสดีครับ</t>
+  </si>
+  <si>
+    <t>Bonjour.</t>
+  </si>
+  <si>
+    <t>(bonjour/)</t>
+  </si>
+  <si>
+    <t>สวัสดีค่ะ</t>
+  </si>
+  <si>
+    <t>ผมชื่อมนูญครับ</t>
+  </si>
+  <si>
+    <t>Je m'appelle Manoun.</t>
+  </si>
+  <si>
+    <t>(moi/s'appeler / Manoun/)</t>
+  </si>
+  <si>
+    <t>ยินดีที่รู้จักคุณ</t>
+  </si>
+  <si>
+    <t>Contente de vous connaître.</t>
+  </si>
+  <si>
+    <t>(être content / de / connaître / vous)</t>
+  </si>
+  <si>
+    <t>ขอโทษครับ คุณชื่ออะไร</t>
+  </si>
+  <si>
+    <t>Excusez moi, comment vous-appelez vous ?</t>
+  </si>
+  <si>
+    <t>(pardon/vous / s'appeler / quoi)</t>
+  </si>
+  <si>
+    <t>ฉันชื่อปาริชาติค่ะ</t>
+  </si>
+  <si>
+    <t>Je m'appelle Parichat.</t>
+  </si>
+  <si>
+    <t>(moi / s'appeler / Panchat/)</t>
+  </si>
+  <si>
+    <t>คุณจะไปไหนครับ</t>
+  </si>
+  <si>
+    <t>Où allez-vous ?</t>
+  </si>
+  <si>
+    <t>(vous / "futur" /aller/où/)</t>
+  </si>
+  <si>
+    <t>ไปทำงาน</t>
+  </si>
+  <si>
+    <t>Je vais travailler.</t>
+  </si>
+  <si>
+    <t>(aller/faire/travail)</t>
+  </si>
+  <si>
+    <t>L'autobus arrive,</t>
+  </si>
+  <si>
+    <t>je vous dis au revoir.</t>
+  </si>
+  <si>
+    <t>(autobus/venir / déjà /</t>
+  </si>
+  <si>
+    <t>moi/dire au revoir/)</t>
+  </si>
+  <si>
+    <t>Au revoir.</t>
+  </si>
+  <si>
+    <t>(au revoir/)</t>
+  </si>
+  <si>
+    <t>วันหลังพบกันใหม่นะครับ</t>
+  </si>
+  <si>
+    <t>J'espère vous revoir un jour.</t>
+  </si>
+  <si>
+    <t>(un jour futur/se rencontrer/à nouveau/)</t>
+  </si>
+  <si>
+    <t>รถเมล์มาแล้ว ผมลาละครับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สวัสดีครับ </t>
+  </si>
+  <si>
+    <t>sà-wàt-dii kráp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สวัสดีค่ะ </t>
+  </si>
+  <si>
+    <t>sà-wàt-dii khâ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผมชื่อมนูญครับ </t>
+  </si>
+  <si>
+    <t>pʰǒm chɯ̂a mə-nuun kráp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยินดีที่รู้จักคุณ </t>
+  </si>
+  <si>
+    <t>yin-dii tîi rúu-jàk khǔn]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขอโทษครับ คุณชื่ออะไร </t>
+  </si>
+  <si>
+    <t>kʰɔ̌ɔ tʰôot kráp khǔn chɯ̂a à-rai]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฉันชื่อปาริชาติค่ะ </t>
+  </si>
+  <si>
+    <t>tɕʰǎn chɯ̂a bpāa-rí-châat khâ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณจะไปไหนครับ </t>
+  </si>
+  <si>
+    <t>khǔn tɕà bpai nǎi kráp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไปทำงาน </t>
+  </si>
+  <si>
+    <t>bpai tam-ngaan]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รถเมล์มาแล้ว ผมลาละครับ </t>
+  </si>
+  <si>
+    <t>rót mlee maa láew pʰǒm laa lá kráp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วันหลังพบกันใหม่นะครับ </t>
+  </si>
+  <si>
+    <t>wan-lǎng pʰóp gan mài ná kráp]</t>
+  </si>
+  <si>
+    <t>1 – สวัสดีครับ</t>
+  </si>
+  <si>
+    <t>2 – สวัสดีค่ะ</t>
+  </si>
+  <si>
+    <t>3 – ผมชื่อมนูญครับ</t>
+  </si>
+  <si>
+    <t>4 – ยินดีที่รู้จักคุณ</t>
+  </si>
+  <si>
+    <t>5 – ขอโทษครับ คุณชื่ออะไร</t>
+  </si>
+  <si>
+    <t>6 – ฉันชื่อปาริชาติค่ะ</t>
+  </si>
+  <si>
+    <t>7 – คุณจะไปไหนครับ</t>
+  </si>
+  <si>
+    <t>8 – ไปทำงาน</t>
+  </si>
+  <si>
+    <t>9 – รถเมล์มาแล้ว ผมลาละครับ</t>
+  </si>
+  <si>
+    <t>10 – สวัสดีค่ะ</t>
+  </si>
+  <si>
+    <t>11 – วันหลังพบกันใหม่นะครับ</t>
+  </si>
+  <si>
+    <t>1 – sà-wàt-dii kráp]</t>
+  </si>
+  <si>
+    <t>2 – sà-wàt-dii khâ]</t>
+  </si>
+  <si>
+    <t>3 – pʰǒm chɯ̂a mə-nuun kráp]</t>
+  </si>
+  <si>
+    <t>4 – yin-dii tîi rúu-jàk khǔn]</t>
+  </si>
+  <si>
+    <t>5 – kʰɔ̌ɔ tʰôot kráp khǔn chɯ̂a à-rai]</t>
+  </si>
+  <si>
+    <t>6 – tɕʰǎn chɯ̂a bpāa-rí-châat khâ]</t>
+  </si>
+  <si>
+    <t>7 – khǔn tɕà bpai nǎi kráp]</t>
+  </si>
+  <si>
+    <t>8 – bpai tam-ngaan]</t>
+  </si>
+  <si>
+    <t>9 – rót mlee maa láew pʰǒm laa lá kráp]</t>
+  </si>
+  <si>
+    <t>10 – sà-wàt-dii khâ]</t>
+  </si>
+  <si>
+    <t>11 – wan-lǎng pʰóp gan mài ná kráp]</t>
+  </si>
+  <si>
+    <t>Olá.</t>
+  </si>
+  <si>
+    <t>Como você está?</t>
+  </si>
+  <si>
+    <t>Eu sou Manun.</t>
+  </si>
+  <si>
+    <t>O que você está fazendo?</t>
+  </si>
+  <si>
+    <t>Eu estou trabalhando.</t>
+  </si>
+  <si>
+    <t>Onde você vai agora?</t>
+  </si>
+  <si>
+    <t>Eu vou para o trabalho.</t>
+  </si>
+  <si>
+    <t>Até mais tarde.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,16 +475,28 @@
       <name val="Ubuntu"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12.1"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDBA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,16 +504,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A3A86-0B8A-41D9-9765-834A3B6C7CA6}">
-  <dimension ref="A4:G28"/>
+  <dimension ref="A4:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F12"/>
+      <selection activeCell="F7" sqref="F7:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +914,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="87" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
   </cols>
@@ -605,14 +946,14 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt; Como vai? – Mais ou menos.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Olá.&lt;/p&gt;</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -629,14 +970,14 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt; Alô? É você? – Sim, sou eu.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;Como você está?&lt;/p&gt;</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -653,14 +994,14 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt; O que você fez nestes últimos dias? Bah, as coisas de sempre.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Eu sou Manun.&lt;/p&gt;</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -677,14 +1018,14 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt; Fiz um pouco de compras: fui no açougue e na mercearia.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;O que você está fazendo?&lt;/p&gt;</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -701,14 +1042,14 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt; Ontem à noite, ao invés, passei uma noite agradável.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;Eu estou trabalhando.&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -725,14 +1066,14 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt; Espera um instante: desligo o rádio e acendo um cigarro.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;Onde você vai agora?&lt;/p&gt;</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -748,12 +1089,15 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;Eu vou para o trabalho.&lt;/p&gt;</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -769,12 +1113,15 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;Até mais tarde.&lt;/p&gt;</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -1011,6 +1358,204 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1021,15 +1566,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4863C-CB67-4667-BC4A-4C331B20805D}">
-  <dimension ref="C4:D16"/>
+  <dimension ref="C4:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1136,7 +1683,241 @@
         <v>46</v>
       </c>
     </row>
+    <row r="20" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="6">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="6">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="6">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="11">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="11"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="6">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC5500C-F6B2-4894-BCE5-47AD45956AE9}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586EDCEF-B51F-4D5D-B090-CF1C4822B7B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -48,48 +48,6 @@
     <t>La telefon</t>
   </si>
   <si>
-    <t>Au (A) téléphone</t>
-  </si>
-  <si>
-    <t>Allô ? Oui ?</t>
-  </si>
-  <si>
-    <t>Bonjour, Monsieur Popescu.</t>
-  </si>
-  <si>
-    <t>Je suis Tudor lonescu.</t>
-  </si>
-  <si>
-    <t>Ah, salut, Tudor ! Comment vas-tu ?</t>
-  </si>
-  <si>
-    <t>Bien, merci ! Et vous ?</t>
-  </si>
-  <si>
-    <t>Comment allez-vous ?</t>
-  </si>
-  <si>
-    <t>Très bien, merci.</t>
-  </si>
-  <si>
-    <t>[Est-ce que] Ion est à la maison ?</t>
-  </si>
-  <si>
-    <t>Non, pas encore.</t>
-  </si>
-  <si>
-    <t>Je crois qu'il rentre (vient) à cinq heures (à l'heure cinq).</t>
-  </si>
-  <si>
-    <t>Alors j'essaie plus tard.</t>
-  </si>
-  <si>
-    <t>Au revoir, Monsieur Popescu.</t>
-  </si>
-  <si>
-    <t>A bientôt, Tudor.</t>
-  </si>
-  <si>
     <t>&lt;p&gt;</t>
   </si>
   <si>
@@ -306,154 +264,25 @@
     <t>รถเมล์มาแล้ว ผมลาละครับ</t>
   </si>
   <si>
-    <t xml:space="preserve">สวัสดีครับ </t>
-  </si>
-  <si>
-    <t>sà-wàt-dii kráp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สวัสดีค่ะ </t>
-  </si>
-  <si>
-    <t>sà-wàt-dii khâ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ผมชื่อมนูญครับ </t>
-  </si>
-  <si>
-    <t>pʰǒm chɯ̂a mə-nuun kráp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ยินดีที่รู้จักคุณ </t>
-  </si>
-  <si>
-    <t>yin-dii tîi rúu-jàk khǔn]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ขอโทษครับ คุณชื่ออะไร </t>
-  </si>
-  <si>
-    <t>kʰɔ̌ɔ tʰôot kráp khǔn chɯ̂a à-rai]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฉันชื่อปาริชาติค่ะ </t>
-  </si>
-  <si>
-    <t>tɕʰǎn chɯ̂a bpāa-rí-châat khâ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณจะไปไหนครับ </t>
-  </si>
-  <si>
-    <t>khǔn tɕà bpai nǎi kráp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ไปทำงาน </t>
-  </si>
-  <si>
-    <t>bpai tam-ngaan]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รถเมล์มาแล้ว ผมลาละครับ </t>
-  </si>
-  <si>
-    <t>rót mlee maa láew pʰǒm laa lá kráp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันหลังพบกันใหม่นะครับ </t>
-  </si>
-  <si>
-    <t>wan-lǎng pʰóp gan mài ná kráp]</t>
-  </si>
-  <si>
-    <t>1 – สวัสดีครับ</t>
-  </si>
-  <si>
-    <t>2 – สวัสดีค่ะ</t>
-  </si>
-  <si>
-    <t>3 – ผมชื่อมนูญครับ</t>
-  </si>
-  <si>
-    <t>4 – ยินดีที่รู้จักคุณ</t>
-  </si>
-  <si>
-    <t>5 – ขอโทษครับ คุณชื่ออะไร</t>
-  </si>
-  <si>
-    <t>6 – ฉันชื่อปาริชาติค่ะ</t>
-  </si>
-  <si>
-    <t>7 – คุณจะไปไหนครับ</t>
-  </si>
-  <si>
-    <t>8 – ไปทำงาน</t>
-  </si>
-  <si>
-    <t>9 – รถเมล์มาแล้ว ผมลาละครับ</t>
-  </si>
-  <si>
-    <t>10 – สวัสดีค่ะ</t>
-  </si>
-  <si>
-    <t>11 – วันหลังพบกันใหม่นะครับ</t>
-  </si>
-  <si>
-    <t>1 – sà-wàt-dii kráp]</t>
-  </si>
-  <si>
-    <t>2 – sà-wàt-dii khâ]</t>
-  </si>
-  <si>
-    <t>3 – pʰǒm chɯ̂a mə-nuun kráp]</t>
-  </si>
-  <si>
-    <t>4 – yin-dii tîi rúu-jàk khǔn]</t>
-  </si>
-  <si>
-    <t>5 – kʰɔ̌ɔ tʰôot kráp khǔn chɯ̂a à-rai]</t>
-  </si>
-  <si>
-    <t>6 – tɕʰǎn chɯ̂a bpāa-rí-châat khâ]</t>
-  </si>
-  <si>
-    <t>7 – khǔn tɕà bpai nǎi kráp]</t>
-  </si>
-  <si>
-    <t>8 – bpai tam-ngaan]</t>
-  </si>
-  <si>
-    <t>9 – rót mlee maa láew pʰǒm laa lá kráp]</t>
-  </si>
-  <si>
-    <t>10 – sà-wàt-dii khâ]</t>
-  </si>
-  <si>
-    <t>11 – wan-lǎng pʰóp gan mài ná kráp]</t>
-  </si>
-  <si>
-    <t>Olá.</t>
-  </si>
-  <si>
-    <t>Como você está?</t>
-  </si>
-  <si>
-    <t>Eu sou Manun.</t>
-  </si>
-  <si>
-    <t>O que você está fazendo?</t>
-  </si>
-  <si>
-    <t>Eu estou trabalhando.</t>
-  </si>
-  <si>
-    <t>Onde você vai agora?</t>
-  </si>
-  <si>
-    <t>Eu vou para o trabalho.</t>
-  </si>
-  <si>
-    <t>Até mais tarde.</t>
+    <t> Ça sent bon: cheira bem. Ça sent mauvais: cheira mal. Cuidado com este verbo! Só em certos casos tem o significado de sentir, tal como em português (verá mais tarde). Aqui significa cheirar. Notas 2 e 3.</t>
+  </si>
+  <si>
+    <t> Daube: estufado. Un bœuf: um boi; du bœuf: carne de boi/vaca; un agneau: um cordeiro; de l’agneau: carne de cordeiro; un veau : um bezerro; du veau: carne de bezerro; un cochon: um porco; du cochon: carne de porco.</t>
+  </si>
+  <si>
+    <t> Recorde-se da nota n° 2 da lição 16. Vous en voulez? quer (disto)?</t>
+  </si>
+  <si>
+    <t> Déjà : já. Em francês não se começa uma frase por já, como em português. Por outro lado o auxiliar ter não surge sempre seguido pelo particípio; encontramos frequentemente um advérbio a separá-los.</t>
+  </si>
+  <si>
+    <t> Aussi; também. Non plus: também nao.</t>
+  </si>
+  <si>
+    <t> A repetição de pronomes (moi, je) corresponde a uma maneira já muito coloquial de falar e que lhe aconselhamos evitar. Temos de reconhecer, no entanto, que em certos meios é bastante comum. Pode por vezes ser útil visto que dá à frase um certo ênfase e pode corresponder a uma diferenciação. Moi je suis d’accord: eu, em contrapartida, estou de acordo; eu cá estou de acordo; no que me diz respeito estou de acordo…</t>
+  </si>
+  <si>
+    <t> Vous le trouverez en France: os encontrei na França; elle va en France: ela vai a França. No entanto, se o nome do país estiver no plural (Países Baixos, Estados unidos, etc) deve dizer-se aux: Ils vont aux Etats-Unis: vão aos Estados Unidos.</t>
   </si>
 </sst>
 </file>
@@ -903,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A3A86-0B8A-41D9-9765-834A3B6C7CA6}">
-  <dimension ref="A4:G66"/>
+  <dimension ref="A4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +748,7 @@
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -927,635 +756,371 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;Olá.&lt;/p&gt;</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;Como você está?&lt;/p&gt;</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;Eu sou Manun.&lt;/p&gt;</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;O que você está fazendo?&lt;/p&gt;</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;Eu estou trabalhando.&lt;/p&gt;</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;Onde você vai agora?&lt;/p&gt;</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;Eu vou para o trabalho.&lt;/p&gt;</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;Até mais tarde.&lt;/p&gt;</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;p&gt;&lt;strong&gt;17 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D4863C-CB67-4667-BC4A-4C331B20805D}">
-  <dimension ref="C4:E45"/>
+  <dimension ref="C4:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1592,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1600,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1608,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1616,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1624,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1632,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1640,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1648,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1656,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1664,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1672,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1680,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1706,17 +1271,17 @@
         <v>1</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,17 +1289,17 @@
         <v>2</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1742,17 +1307,17 @@
         <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1760,17 +1325,17 @@
         <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1778,17 +1343,17 @@
         <v>5</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1796,17 +1361,17 @@
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1814,17 +1379,17 @@
         <v>7</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1832,17 +1397,17 @@
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1850,31 +1415,31 @@
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="11"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="12"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1882,17 +1447,17 @@
         <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1900,17 +1465,73 @@
         <v>11</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586EDCEF-B51F-4D5D-B090-CF1C4822B7B5}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCEE5B5-C7B7-42B0-8829-B6990EED2259}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CCEE5B5-C7B7-42B0-8829-B6990EED2259}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D26DD551-94C7-405D-A9E6-08E69DD62DA0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -283,6 +283,57 @@
   </si>
   <si>
     <t> Vous le trouverez en France: os encontrei na França; elle va en France: ela vai a França. No entanto, se o nome do país estiver no plural (Países Baixos, Estados unidos, etc) deve dizer-se aux: Ils vont aux Etats-Unis: vão aos Estados Unidos.</t>
+  </si>
+  <si>
+    <t>Cartofii crocanţi şi nu prea graşi ...</t>
+  </si>
+  <si>
+    <t>ˈʃase – desˈpre ˈtʃe-i ˈvorba ? sper kə nu e ˈtʃeva ɡrav !</t>
+  </si>
+  <si>
+    <t>ˈʃapte – ʃtiʲ se ˈzit͡ʃə ʒok ˈpo.ker ɨn doi ku ˈsot͡s̪i̯a ta ! (3)</t>
+  </si>
+  <si>
+    <t>ˈopt – kum te kuˈnos̪k sɨnt̪ siˈɡur kə nu e deˈt͡ʃit un zvon rəu̯ˈvowtor l</t>
+  </si>
+  <si>
+    <t>ˈnouă – ˈasta-i tot̪ ? dar e adeˈvərul adeˈvərat</t>
+  </si>
+  <si>
+    <t>ˈze̯ek – ʒuˈkəm ɨmpreˈuna kərt͡s əproaˈpe ɨn fiˈe̯are seaˈra</t>
+  </si>
+  <si>
+    <t>ˈunu.deˈcea – nu pot sə ˈkred ke se ɨntɨmˈpla kʊ voi</t>
+  </si>
+  <si>
+    <t>ˈdouˈspreˈzece – tu nu aj fost n̪it͡ʃi.oˈda.t͡sə un ˈmare ʒuˈkat̪or ʃi niˈt͡ʃi luˈt͡ʃi̯a</t>
+  </si>
+  <si>
+    <t>douˈspreˈzece – ew am aˈwut iˈde̯ea as̪ta minuˈnatə aˈkum ˈdowə luni (4) (5)</t>
+  </si>
+  <si>
+    <t>ˈpatruˈspreˈzece – ʃti kə la ˈnoj neˈvas̪təmja t͡s̪iːne ˈbanij ; (6) (7) preˈfer o duˈzina de striˈdi.i pro̯asˈpete bi.ne spəˈlate</t>
+  </si>
+  <si>
+    <t>ˈkinˈspreˈzece – ew nam deˈt͡ʃit o ˈsut͡sə de lei pe ˈlunə bani de buˈzunar</t>
+  </si>
+  <si>
+    <t>ˈʃaiˈspreˈzece – ej ˈbine luˈna t͡ʃreˈku.tə de e̯ksemˈplu am kɨʃtiˈɡat ɨnaˈpoj ʒuˈmətate din saˈlarju</t>
+  </si>
+  <si>
+    <t>ˈunu – ej a fost un ˈfo̯arte maˈre ʒuˈkat͡sʲor de kərts</t>
+  </si>
+  <si>
+    <t>ˈdoi – ˈnoj ˈʒukəm ˈpo.ker ɨmpreˈuna ku fraˈtele mew ʃi ku ˈsot͡s̪i̯a lui</t>
+  </si>
+  <si>
+    <t>ˈtrei – t͡ʃe se ɨntɨmˈpla ku ˈsora ta e bolˈnava</t>
+  </si>
+  <si>
+    <t>ˈpatru – se ˈzit͡ʃə ka ˈo̯amenij sɨnt̪ a.niˈmale raʦioˈnale</t>
+  </si>
+  <si>
+    <t>ˈsink – iˈjer am aˈwut o iˈde̯e buˈnə am fost la re.stoˈrant ku priˈetena me̯a ʃi am mɨnˈkat fo̯arte bi.ne karˈtofij kroˈkant͡sʲ ʃi nu pre̯a ɡraʃ</t>
   </si>
 </sst>
 </file>
@@ -732,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A3A86-0B8A-41D9-9765-834A3B6C7CA6}">
-  <dimension ref="A4:F28"/>
+  <dimension ref="A4:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F12"/>
+      <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +799,7 @@
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -756,12 +807,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -771,15 +827,18 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;ˈunu – ej a fost un ˈfo̯arte maˈre ʒuˈkat͡sʲor de kərts&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -789,15 +848,18 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;ˈdoi – ˈnoj ˈʒukəm ˈpo.ker ɨmpreˈuna ku fraˈtele mew ʃi ku ˈsot͡s̪i̯a lui&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -807,15 +869,18 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;ˈtrei – t͡ʃe se ɨntɨmˈpla ku ˈsora ta e bolˈnava&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -825,15 +890,18 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;ˈpatru – se ˈzit͡ʃə ka ˈo̯amenij sɨnt̪ a.niˈmale raʦioˈnale&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -843,15 +911,21 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;ˈsink – iˈjer am aˈwut o iˈde̯e buˈnə am fost la re.stoˈrant ku priˈetena me̯a ʃi am mɨnˈkat fo̯arte bi.ne karˈtofij kroˈkant͡sʲ ʃi nu pre̯a ɡraʃ&lt;/p&gt;</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -861,15 +935,18 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;ˈʃase – desˈpre ˈtʃe-i ˈvorba ? sper kə nu e ˈtʃeva ɡrav !&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -879,15 +956,18 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;ˈʃapte – ʃtiʲ se ˈzit͡ʃə ʒok ˈpo.ker ɨn doi ku ˈsot͡s̪i̯a ta ! (3)&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -897,15 +977,18 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;ˈopt – kum te kuˈnos̪k sɨnt̪ siˈɡur kə nu e deˈt͡ʃit un zvon rəu̯ˈvowtor l&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -915,15 +998,18 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;ˈnouă – ˈasta-i tot̪ ? dar e adeˈvərul adeˈvərat&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -933,15 +1019,18 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;ˈze̯ek – ʒuˈkəm ɨmpreˈuna kərt͡s əproaˈpe ɨn fiˈe̯are seaˈra&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -951,15 +1040,18 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;ˈunu.deˈcea – nu pot sə ˈkred ke se ɨntɨmˈpla kʊ voi&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -969,15 +1061,18 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;ˈdouˈspreˈzece – tu nu aj fost n̪it͡ʃi.oˈda.t͡sə un ˈmare ʒuˈkat̪or ʃi niˈt͡ʃi luˈt͡ʃi̯a&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -987,15 +1082,18 @@
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;douˈspreˈzece – ew am aˈwut iˈde̯ea as̪ta minuˈnatə aˈkum ˈdowə luni (4) (5)&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1005,15 +1103,22 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;ˈpatruˈspreˈzece – ʃti kə la ˈnoj neˈvas̪təmja t͡s̪iːne ˈbanij ; (6) (7) preˈfer o duˈzina de striˈdi.i pro̯asˈpete bi.ne spəˈlate&lt;/p&gt;</v>
+      </c>
+      <c r="G20" t="str">
+        <f>CONCATENATE(A20,B20,C20,D20,E20)</f>
+        <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;ˈpatruˈspreˈzece – ʃti kə la ˈnoj neˈvas̪təmja t͡s̪iːne ˈbanij ; (6) (7) preˈfer o duˈzina de striˈdi.i pro̯asˈpete bi.ne spəˈlate&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1023,15 +1128,18 @@
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;ˈkinˈspreˈzece – ew nam deˈt͡ʃit o ˈsut͡sə de lei pe ˈlunə bani de buˈzunar&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1041,15 +1149,18 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;&lt;/p&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;ˈʃaiˈspreˈzece – ej ˈbine luˈna t͡ʃreˈku.tə de e̯ksemˈplu am kɨʃtiˈɡat ɨnaˈpoj ʒuˈmətate din saˈlarju&lt;/p&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1178,7 @@
         <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1196,7 @@
         <v>&lt;p&gt;&lt;strong&gt;17 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1113,12 +1224,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>

--- a/romeno formula.xlsx
+++ b/romeno formula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edae4f98c88ad24e/Documentos/GitHub/Assimil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D26DD551-94C7-405D-A9E6-08E69DD62DA0}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:1_{425AA582-D35C-4E94-8AA2-D1743C580705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8B13D4D-CFEA-4C02-914F-53D07688D0EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E41F6ED-BA31-4332-9F2D-8C0EC59DA297}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>LECŢIA A DOUA</t>
   </si>
@@ -288,30 +288,6 @@
     <t>Cartofii crocanţi şi nu prea graşi ...</t>
   </si>
   <si>
-    <t>ˈʃase – desˈpre ˈtʃe-i ˈvorba ? sper kə nu e ˈtʃeva ɡrav !</t>
-  </si>
-  <si>
-    <t>ˈʃapte – ʃtiʲ se ˈzit͡ʃə ʒok ˈpo.ker ɨn doi ku ˈsot͡s̪i̯a ta ! (3)</t>
-  </si>
-  <si>
-    <t>ˈopt – kum te kuˈnos̪k sɨnt̪ siˈɡur kə nu e deˈt͡ʃit un zvon rəu̯ˈvowtor l</t>
-  </si>
-  <si>
-    <t>ˈnouă – ˈasta-i tot̪ ? dar e adeˈvərul adeˈvərat</t>
-  </si>
-  <si>
-    <t>ˈze̯ek – ʒuˈkəm ɨmpreˈuna kərt͡s əproaˈpe ɨn fiˈe̯are seaˈra</t>
-  </si>
-  <si>
-    <t>ˈunu.deˈcea – nu pot sə ˈkred ke se ɨntɨmˈpla kʊ voi</t>
-  </si>
-  <si>
-    <t>ˈdouˈspreˈzece – tu nu aj fost n̪it͡ʃi.oˈda.t͡sə un ˈmare ʒuˈkat̪or ʃi niˈt͡ʃi luˈt͡ʃi̯a</t>
-  </si>
-  <si>
-    <t>douˈspreˈzece – ew am aˈwut iˈde̯ea as̪ta minuˈnatə aˈkum ˈdowə luni (4) (5)</t>
-  </si>
-  <si>
     <t>ˈpatruˈspreˈzece – ʃti kə la ˈnoj neˈvas̪təmja t͡s̪iːne ˈbanij ; (6) (7) preˈfer o duˈzina de striˈdi.i pro̯asˈpete bi.ne spəˈlate</t>
   </si>
   <si>
@@ -321,19 +297,19 @@
     <t>ˈʃaiˈspreˈzece – ej ˈbine luˈna t͡ʃreˈku.tə de e̯ksemˈplu am kɨʃtiˈɡat ɨnaˈpoj ʒuˈmətate din saˈlarju</t>
   </si>
   <si>
-    <t>ˈunu – ej a fost un ˈfo̯arte maˈre ʒuˈkat͡sʲor de kərts</t>
-  </si>
-  <si>
-    <t>ˈdoi – ˈnoj ˈʒukəm ˈpo.ker ɨmpreˈuna ku fraˈtele mew ʃi ku ˈsot͡s̪i̯a lui</t>
-  </si>
-  <si>
-    <t>ˈtrei – t͡ʃe se ɨntɨmˈpla ku ˈsora ta e bolˈnava</t>
-  </si>
-  <si>
-    <t>ˈpatru – se ˈzit͡ʃə ka ˈo̯amenij sɨnt̪ a.niˈmale raʦioˈnale</t>
-  </si>
-  <si>
-    <t>ˈsink – iˈjer am aˈwut o iˈde̯e buˈnə am fost la re.stoˈrant ku priˈetena me̯a ʃi am mɨnˈkat fo̯arte bi.ne karˈtofij kroˈkant͡sʲ ʃi nu pre̯a ɡraʃ</t>
+    <t>kak vas zɐˈvut</t>
+  </si>
+  <si>
+    <t>mʲɪˈnʲa zɐˈvut nɐˈtaʂə. ɐ vas?</t>
+  </si>
+  <si>
+    <t>ja – sʲɪrˈɡʲej</t>
+  </si>
+  <si>
+    <t>ˈot͡ɕɪnʲ prʲɪˈjatnə</t>
+  </si>
+  <si>
+    <t>mnʲe ˈtoʐɨ</t>
   </si>
 </sst>
 </file>
@@ -482,14 +458,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -527,7 +499,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -633,7 +605,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,14 +800,14 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="str">
         <f>CONCATENATE(A7,B7,C7,D7,E7)</f>
-        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;ˈunu – ej a fost un ˈfo̯arte maˈre ʒuˈkat͡sʲor de kərts&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;1 – &lt;/strong&gt;kak vas zɐˈvut&lt;/p&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -849,14 +821,14 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ref="F8:F24" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
-        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;ˈdoi – ˈnoj ˈʒukəm ˈpo.ker ɨmpreˈuna ku fraˈtele mew ʃi ku ˈsot͡s̪i̯a lui&lt;/p&gt;</v>
+        <f t="shared" ref="F8:F14" si="0">CONCATENATE(A8,B8,C8,D8,E8)</f>
+        <v>&lt;p&gt;&lt;strong&gt;2 – &lt;/strong&gt;mʲɪˈnʲa zɐˈvut nɐˈtaʂə. ɐ vas?&lt;/p&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,14 +842,14 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;ˈtrei – t͡ʃe se ɨntɨmˈpla ku ˈsora ta e bolˈnava&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;3 – &lt;/strong&gt;ja – sʲɪrˈɡʲej&lt;/p&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,14 +863,14 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;ˈpatru – se ˈzit͡ʃə ka ˈo̯amenij sɨnt̪ a.niˈmale raʦioˈnale&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;4 – &lt;/strong&gt;ˈot͡ɕɪnʲ prʲɪˈjatnə&lt;/p&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,14 +884,14 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;ˈsink – iˈjer am aˈwut o iˈde̯e buˈnə am fost la re.stoˈrant ku priˈetena me̯a ʃi am mɨnˈkat fo̯arte bi.ne karˈtofij kroˈkant͡sʲ ʃi nu pre̯a ɡraʃ&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;5 – &lt;/strong&gt;mnʲe ˈtoʐɨ&lt;/p&gt;</v>
       </c>
       <c r="G11" t="s">
         <v>82</v>
@@ -935,15 +907,12 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;ˈʃase – desˈpre ˈtʃe-i ˈvorba ? sper kə nu e ˈtʃeva ɡrav !&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;6 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,15 +925,12 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>84</v>
-      </c>
       <c r="E13" t="s">
         <v>4</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;ˈʃapte – ʃtiʲ se ˈzit͡ʃə ʒok ˈpo.ker ɨn doi ku ˈsot͡s̪i̯a ta ! (3)&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;7 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,15 +943,12 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;ˈopt – kum te kuˈnos̪k sɨnt̪ siˈɡur kə nu e deˈt͡ʃit un zvon rəu̯ˈvowtor l&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;strong&gt;8 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,15 +961,12 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>86</v>
-      </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;ˈnouă – ˈasta-i tot̪ ? dar e adeˈvərul adeˈvərat&lt;/p&gt;</v>
+        <f>CONCATENATE(A15,B15,C15,D13,E15)</f>
+        <v>&lt;p&gt;&lt;strong&gt;9 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,15 +979,12 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;ˈze̯ek – ʒuˈkəm ɨmpreˈuna kərt͡s əproaˈpe ɨn fiˈe̯are seaˈra&lt;/p&gt;</v>
+        <f>CONCATENATE(A16,B16,C16,D14,E16)</f>
+        <v>&lt;p&gt;&lt;strong&gt;10 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,15 +997,12 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;ˈunu.deˈcea – nu pot sə ˈkred ke se ɨntɨmˈpla kʊ voi&lt;/p&gt;</v>
+        <f>CONCATENATE(A17,B17,C17,D15,E17)</f>
+        <v>&lt;p&gt;&lt;strong&gt;11 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,15 +1015,12 @@
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;ˈdouˈspreˈzece – tu nu aj fost n̪it͡ʃi.oˈda.t͡sə un ˈmare ʒuˈkat̪or ʃi niˈt͡ʃi luˈt͡ʃi̯a&lt;/p&gt;</v>
+        <f>CONCATENATE(A18,B18,C18,D16,E18)</f>
+        <v>&lt;p&gt;&lt;strong&gt;12 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,15 +1033,12 @@
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;douˈspreˈzece – ew am aˈwut iˈde̯ea as̪ta minuˈnatə aˈkum ˈdowə luni (4) (5)&lt;/p&gt;</v>
+        <f t="shared" ref="F8:F24" si="1">CONCATENATE(A19,B19,C19,D19,E19)</f>
+        <v>&lt;p&gt;&lt;strong&gt;13 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;p&gt;&lt;strong&gt;14 – &lt;/strong&gt;ˈpatruˈspreˈzece – ʃti kə la ˈnoj neˈvas̪təmja t͡s̪iːne ˈbanij ; (6) (7) preˈfer o duˈzina de striˈdi.i pro̯asˈpete bi.ne spəˈlate&lt;/p&gt;</v>
       </c>
       <c r="G20" t="str">
@@ -1129,13 +1077,13 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;ˈkinˈspreˈzece – ew nam deˈt͡ʃit o ˈsut͡sə de lei pe ˈlunə bani de buˈzunar&lt;/p&gt;</v>
       </c>
     </row>
@@ -1150,13 +1098,13 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;p&gt;&lt;strong&gt;15 – &lt;/strong&gt;ˈʃaiˈspreˈzece – ej ˈbine luˈna t͡ʃreˈku.tə de e̯ksemˈplu am kɨʃtiˈɡat ɨnaˈpoj ʒuˈmətate din saˈlarju&lt;/p&gt;</v>
       </c>
     </row>
@@ -1174,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;p&gt;&lt;strong&gt;16 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
@@ -1192,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>&lt;p&gt;&lt;strong&gt;17 – &lt;/strong&gt;&lt;/p&gt;</v>
       </c>
     </row>
@@ -1236,7 +1184,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
